--- a/Excel/MetaData DataSecurity.xlsx
+++ b/Excel/MetaData DataSecurity.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="229">
   <si>
     <t>Result ID</t>
   </si>
@@ -545,6 +545,168 @@
   </si>
   <si>
     <t>A1392004</t>
+  </si>
+  <si>
+    <t>20220407-Salm-13951</t>
+  </si>
+  <si>
+    <t>A1417701</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3951</t>
+  </si>
+  <si>
+    <t>A1417702</t>
+  </si>
+  <si>
+    <t>A1417703</t>
+  </si>
+  <si>
+    <t>A1417704</t>
+  </si>
+  <si>
+    <t>A1417705</t>
+  </si>
+  <si>
+    <t>A1417706</t>
+  </si>
+  <si>
+    <t>A1417707</t>
+  </si>
+  <si>
+    <t>A1417708</t>
+  </si>
+  <si>
+    <t>A1417709</t>
+  </si>
+  <si>
+    <t>A1417710</t>
+  </si>
+  <si>
+    <t>A1417711</t>
+  </si>
+  <si>
+    <t>A1417712</t>
+  </si>
+  <si>
+    <t>20220407-Salm-23951</t>
+  </si>
+  <si>
+    <t>A1417801</t>
+  </si>
+  <si>
+    <t>A1417802</t>
+  </si>
+  <si>
+    <t>A1417803</t>
+  </si>
+  <si>
+    <t>A1417804</t>
+  </si>
+  <si>
+    <t>A1417805</t>
+  </si>
+  <si>
+    <t>A1417806</t>
+  </si>
+  <si>
+    <t>A1417807</t>
+  </si>
+  <si>
+    <t>A1417808</t>
+  </si>
+  <si>
+    <t>A1417809</t>
+  </si>
+  <si>
+    <t>A1417810</t>
+  </si>
+  <si>
+    <t>A1417811</t>
+  </si>
+  <si>
+    <t>A1417812</t>
+  </si>
+  <si>
+    <t>20220413-Salm-10222</t>
+  </si>
+  <si>
+    <t>A0903401</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0222</t>
+  </si>
+  <si>
+    <t>A0903402</t>
+  </si>
+  <si>
+    <t>A0903403</t>
+  </si>
+  <si>
+    <t>A0903404</t>
+  </si>
+  <si>
+    <t>A0903405</t>
+  </si>
+  <si>
+    <t>A0903406</t>
+  </si>
+  <si>
+    <t>A0903407</t>
+  </si>
+  <si>
+    <t>A0903408</t>
+  </si>
+  <si>
+    <t>A0903409</t>
+  </si>
+  <si>
+    <t>A0903410</t>
+  </si>
+  <si>
+    <t>A0903411</t>
+  </si>
+  <si>
+    <t>A0903412</t>
+  </si>
+  <si>
+    <t>20220413-Salm-20222</t>
+  </si>
+  <si>
+    <t>A0903501</t>
+  </si>
+  <si>
+    <t>A0903502</t>
+  </si>
+  <si>
+    <t>A0903503</t>
+  </si>
+  <si>
+    <t>A0903504</t>
+  </si>
+  <si>
+    <t>A0903505</t>
+  </si>
+  <si>
+    <t>A0903506</t>
+  </si>
+  <si>
+    <t>A0903507</t>
+  </si>
+  <si>
+    <t>A0903508</t>
+  </si>
+  <si>
+    <t>A0903509</t>
+  </si>
+  <si>
+    <t>A0903510</t>
+  </si>
+  <si>
+    <t>A0903511</t>
+  </si>
+  <si>
+    <t>A0903512</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1175,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -1025,7 +1187,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1061,7 +1223,7 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
         <v>25</v>
@@ -1070,7 +1232,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1087,7 +1249,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -1099,7 +1261,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1135,7 +1297,7 @@
         <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
         <v>25</v>
@@ -1144,7 +1306,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1161,7 +1323,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -1173,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1209,7 +1371,7 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s">
         <v>25</v>
@@ -1218,7 +1380,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1235,7 +1397,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -1247,7 +1409,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1283,7 +1445,7 @@
         <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s">
         <v>25</v>
@@ -1292,7 +1454,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1309,7 +1471,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -1321,7 +1483,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1357,7 +1519,7 @@
         <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s">
         <v>25</v>
@@ -1366,7 +1528,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1383,7 +1545,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -1395,7 +1557,7 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1431,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R7" t="s">
         <v>25</v>
@@ -1440,7 +1602,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1457,7 +1619,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -1469,7 +1631,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1505,7 +1667,7 @@
         <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s">
         <v>25</v>
@@ -1514,7 +1676,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1531,7 +1693,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -1543,7 +1705,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1579,7 +1741,7 @@
         <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="R9" t="s">
         <v>25</v>
@@ -1588,7 +1750,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1605,7 +1767,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -1617,7 +1779,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1653,7 +1815,7 @@
         <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R10" t="s">
         <v>25</v>
@@ -1662,7 +1824,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1679,7 +1841,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -1691,7 +1853,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1727,7 +1889,7 @@
         <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R11" t="s">
         <v>25</v>
@@ -1736,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -1753,7 +1915,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -1765,7 +1927,7 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1801,7 +1963,7 @@
         <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R12" t="s">
         <v>25</v>
@@ -1810,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -1827,7 +1989,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -1839,7 +2001,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -1875,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R13" t="s">
         <v>25</v>
@@ -1884,7 +2046,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/MetaData DataSecurity.xlsx
+++ b/Excel/MetaData DataSecurity.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="256">
   <si>
     <t>Result ID</t>
   </si>
@@ -707,6 +707,87 @@
   </si>
   <si>
     <t>A0903512</t>
+  </si>
+  <si>
+    <t>20220603-Salm-10030</t>
+  </si>
+  <si>
+    <t>A1432801</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0030</t>
+  </si>
+  <si>
+    <t>A1432802</t>
+  </si>
+  <si>
+    <t>A1432803</t>
+  </si>
+  <si>
+    <t>A1432804</t>
+  </si>
+  <si>
+    <t>A1432805</t>
+  </si>
+  <si>
+    <t>A1432806</t>
+  </si>
+  <si>
+    <t>A1432807</t>
+  </si>
+  <si>
+    <t>A1432808</t>
+  </si>
+  <si>
+    <t>A1432809</t>
+  </si>
+  <si>
+    <t>A1432810</t>
+  </si>
+  <si>
+    <t>A1432811</t>
+  </si>
+  <si>
+    <t>A1432812</t>
+  </si>
+  <si>
+    <t>20220603-Salm-20030</t>
+  </si>
+  <si>
+    <t>A1433001</t>
+  </si>
+  <si>
+    <t>A1433002</t>
+  </si>
+  <si>
+    <t>A1433003</t>
+  </si>
+  <si>
+    <t>A1433004</t>
+  </si>
+  <si>
+    <t>A1433005</t>
+  </si>
+  <si>
+    <t>A1433006</t>
+  </si>
+  <si>
+    <t>A1433007</t>
+  </si>
+  <si>
+    <t>A1433008</t>
+  </si>
+  <si>
+    <t>A1433009</t>
+  </si>
+  <si>
+    <t>A1433010</t>
+  </si>
+  <si>
+    <t>A1433011</t>
+  </si>
+  <si>
+    <t>A1433012</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1256,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -1187,7 +1268,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1232,7 +1313,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1249,7 +1330,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -1261,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1306,7 +1387,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1323,7 +1404,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -1335,7 +1416,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1380,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1397,7 +1478,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -1409,7 +1490,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1454,7 +1535,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1471,7 +1552,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -1483,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1528,7 +1609,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1545,7 +1626,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -1557,7 +1638,7 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1602,7 +1683,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1619,7 +1700,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -1631,7 +1712,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1676,7 +1757,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1693,7 +1774,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -1705,7 +1786,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1750,7 +1831,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1767,7 +1848,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -1779,7 +1860,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1824,7 +1905,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1841,7 +1922,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -1853,7 +1934,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1898,7 +1979,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -1915,7 +1996,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -1927,7 +2008,7 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1972,7 +2053,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -1989,7 +2070,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -2001,7 +2082,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -2046,7 +2127,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>
